--- a/Safety Estimation.xlsx
+++ b/Safety Estimation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{BE0FF61C-CB8C-4377-A71C-1AE1F673C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183ECE80-9C34-4007-A72E-951C9B5FB6B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6563F67A-8C83-4680-89EF-CBC10CB40995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TOTAL</t>
   </si>
@@ -43,74 +45,107 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Item #</t>
-  </si>
-  <si>
     <t>Unit price</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Bill to:</t>
-  </si>
-  <si>
-    <t>Address:</t>
-  </si>
-  <si>
-    <t>Phone:</t>
-  </si>
-  <si>
-    <t>Fax:</t>
-  </si>
-  <si>
-    <t>Invoice date:</t>
-  </si>
-  <si>
-    <t>QUOTATION</t>
-  </si>
-  <si>
-    <t>VENKAT CHALLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTIN: 37BQDPC8060L1ZO
-State: 37 - Andhra Pradesh </t>
-  </si>
-  <si>
-    <t>Singh Solutions</t>
-  </si>
-  <si>
-    <t>Nelaturu</t>
-  </si>
-  <si>
-    <t>Muthukuru - 524344</t>
-  </si>
-  <si>
-    <t>lowkyasri.traders@gmail.com</t>
-  </si>
-  <si>
-    <t>P: 9515910613</t>
-  </si>
-  <si>
-    <t>O: 9494112026</t>
-  </si>
-  <si>
-    <t>No. 3 Beside Canara Bank</t>
-  </si>
-  <si>
-    <t>DAGADARTHI, SPSR Nellore 524240</t>
-  </si>
-  <si>
-    <t>Safety Helmet</t>
-  </si>
-  <si>
-    <t>Safety Shoe - LOREX</t>
-  </si>
-  <si>
     <t>GST</t>
   </si>
   <si>
-    <t>The above mentioned cost is for one Qty. Final price will be the Product of unit price, Number of quantity</t>
+    <t>LOWKYASRI TRADERS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subject: Quotation for the supply of safety shoe and Helmet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sir / Madam,
+Please find the below detailed price that we are offering you for the below safety products. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Item </t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions:
+1) The Price quoted above are inclusive of GST as applicable on each item.
+2) Upon the order confirmation, item will be delivered within 3 to 4 weeks. Incase of any changes you will be informed immediately.
+3) Payment 100% to be made at the time of placing the order.
+4) The above prices are quoted based on an order of approximately 1000 nos quantity.</t>
+  </si>
+  <si>
+    <t>We trust the above meets your requirements. Please feel free to contact us for any clarifications.
+Yours Sincerely,
+G Seenama
+Lowkyasri Traders
+Ph No: +91-9346051887
+Mail: lowkyasri.traders@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Invoice Date: 4th Feb, 2026</t>
+    </r>
+  </si>
+  <si>
+    <t>Safety Shoe - Karam Make (FS-05)</t>
+  </si>
+  <si>
+    <t>Safety Helmet - Karam Make (PN-542)</t>
+  </si>
+  <si>
+    <t>To,
+SINGU AGRO &amp; BEVERAGES PRIVATE LIMITED
+Siva Satya Mansion
+Venkata Ramana Colony
+Guntur</t>
   </si>
 </sst>
 </file>
@@ -124,7 +159,7 @@
     <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="168" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.749961851863155"/>
@@ -247,14 +282,6 @@
     </font>
     <font>
       <b/>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Garamond"/>
@@ -289,14 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="2" tint="-0.89996032593768116"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="2" tint="-0.749961851863155"/>
       <name val="Garamond"/>
@@ -305,15 +324,7 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
@@ -322,20 +333,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="2" tint="-0.89996032593768116"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.89996032593768116"/>
+      <color theme="2" tint="-0.749961851863155"/>
       <name val="Garamond"/>
-      <family val="2"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +482,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -485,108 +495,75 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="20" fillId="6" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="6" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="6" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="6" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="6" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -599,53 +576,56 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="6" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="6" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -971,7 +951,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>159506</xdr:rowOff>
     </xdr:to>
@@ -1025,7 +1005,7 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item #" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item " dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Qty" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Unit price" dataDxfId="2"/>
@@ -1274,18 +1254,19 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B7" sqref="B7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="2" customWidth="1"/>
@@ -1302,343 +1283,375 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="57.9" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="2" spans="1:8" ht="57.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12">
-        <f ca="1">TODAY()</f>
-        <v>45799</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="B7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" ht="60.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="17"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" s="39" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" s="39" customFormat="1" ht="60.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="43" t="s">
+      <c r="F13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="42">
+      <c r="B14" s="31">
         <v>1</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="44">
+      <c r="C14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="33">
         <v>1</v>
       </c>
-      <c r="E14" s="47">
-        <v>850</v>
-      </c>
-      <c r="F14" s="48">
-        <v>0.12</v>
-      </c>
-      <c r="G14" s="47">
+      <c r="E14" s="34">
+        <v>1070</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="34">
         <f>(SimpleInvoice[[#This Row],[Qty]]*SimpleInvoice[[#This Row],[Unit price]])+((SimpleInvoice[[#This Row],[Qty]]*SimpleInvoice[[#This Row],[Unit price]]/1)*SimpleInvoice[[#This Row],[GST]])</f>
-        <v>952</v>
-      </c>
-      <c r="H14" s="31"/>
+        <v>1123.5</v>
+      </c>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="42">
+      <c r="B15" s="31">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="44">
+      <c r="C15" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="33">
         <v>1</v>
       </c>
-      <c r="E15" s="47">
-        <v>170</v>
-      </c>
-      <c r="F15" s="48">
+      <c r="E15" s="34">
+        <v>264</v>
+      </c>
+      <c r="F15" s="35">
         <v>0.18</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="34">
         <f>(SimpleInvoice[[#This Row],[Qty]]*SimpleInvoice[[#This Row],[Unit price]])+((SimpleInvoice[[#This Row],[Qty]]*SimpleInvoice[[#This Row],[Unit price]]/1)*SimpleInvoice[[#This Row],[GST]])</f>
-        <v>200.6</v>
-      </c>
-      <c r="H15" s="31"/>
+        <v>311.52</v>
+      </c>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="36">
         <f>SUM(G14,G15)</f>
-        <v>1152.5999999999999</v>
+        <v>1435.02</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="53" t="str">
-        <f>"Please make all checks payable to " &amp; C2 &amp; IF(C3="",""," " &amp; C3) &amp; "."</f>
-        <v>Please make all checks payable to VENKAT CHALLA GSTIN: 37BQDPC8060L1ZO
-State: 37 - Andhra Pradesh .</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" ht="33.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" ht="33.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" ht="33.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0"/>
-  <mergeCells count="5">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B25:G30"/>
+    <mergeCell ref="C2:G4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="760" yWindow="637" count="30">
+  <dataValidations xWindow="760" yWindow="637" count="20">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The total amount is automatically calculated in this cell" sqref="G16" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Price is auto calculated under this heading" sqref="G13" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Discount in this column under this heading" sqref="F13" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
@@ -1646,20 +1659,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="D13" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="C13" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Item number in this column under this heading" sqref="B13" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer fax number in the cell at right" sqref="F11" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer fax number in this cell" sqref="G11" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company phone number in this cell" sqref="B9" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company email address in this cell" sqref="B11" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a simple invoice in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoice date in this cell" sqref="G4" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoice # in the cell at right" sqref="F3" xr:uid="{83A624A0-C412-42C5-B209-AF4807490BE9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoice # in this cell" sqref="G3" xr:uid="{F621686B-821D-410B-9321-DAD7BEDBAC49}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter job type in the cell at right" sqref="F5" xr:uid="{35BF3B7D-2E6B-4A9D-8F8F-F083E5880A3C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter job type in this cell" sqref="G5" xr:uid="{575431E7-7DC3-4301-B07A-F199F3654CAA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter your company street address in this cell" sqref="B7" xr:uid="{82E06D46-C535-4215-ABE2-50F137A2D4A6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoice date in the cell at right" sqref="F4" xr:uid="{B3062644-4D1F-4F79-AC3C-010ED2EB5990}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company's city, state, and ZIP in this cell" sqref="B8" xr:uid="{18D822BA-1A05-41AF-B262-8D5E95B0B335}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company fax number in this cell" sqref="B10" xr:uid="{71BB0314-38F3-4163-AAC1-3B2187A87818}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer name in the cell at right" sqref="F7" xr:uid="{4CF19155-F4AD-4522-BFEA-753FADFA88F2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer name in this cell" sqref="G7" xr:uid="{64F47341-C48E-4FA0-85F3-B2E61C2DF71A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer address in the cell at right" sqref="F8" xr:uid="{0E26DF2A-779B-464B-9E11-AB344ECBCC45}"/>
@@ -1667,21 +1670,18 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer phone number in the cell at right" sqref="F10" xr:uid="{B5FAD08C-605F-4F22-B83D-E2A4AF3A5206}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer phone number in this cell" sqref="G10" xr:uid="{C81B61FA-185A-40AB-B138-AD6125ACA2B9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer city, state, and ZIP in this cell" sqref="G9" xr:uid="{0837AB85-7C6D-4219-95BE-21B09C16AEEB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify company name in this cell and the cell below. Enter company address, phone, fax, and email in cells B7 to B11. Enter Billing details in cells G3 to G11." sqref="C2:D2" xr:uid="{502B3778-4707-431F-B253-84B137ED09B1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B18:G18" xr:uid="{9B688D8E-66C4-4708-A180-A107D02C7D6E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify company name in this cell and the cell below. Enter company address, phone, fax, and email in cells B7 to B11. Enter Billing details in cells G3 to G11." sqref="C2" xr:uid="{502B3778-4707-431F-B253-84B137ED09B1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B18" xr:uid="{9B688D8E-66C4-4708-A180-A107D02C7D6E}"/>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{4B8369DD-8A98-B940-AC2E-E2FB20562035}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter differentFirst="1" alignWithMargins="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2059,11 +2059,18 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1339199-89B4-4D89-B804-0058AC96CA42}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
